--- a/member.xlsx
+++ b/member.xlsx
@@ -15,6 +15,14 @@
     <sheet name="Worksheet 4" sheetId="6" r:id="rId9"/>
     <sheet name="Worksheet 5" sheetId="7" r:id="rId10"/>
     <sheet name="Worksheet 6" sheetId="8" r:id="rId11"/>
+    <sheet name="Worksheet 7" sheetId="9" r:id="rId12"/>
+    <sheet name="Worksheet 8" sheetId="10" r:id="rId13"/>
+    <sheet name="Worksheet 9" sheetId="11" r:id="rId14"/>
+    <sheet name="Worksheet 10" sheetId="12" r:id="rId15"/>
+    <sheet name="Worksheet 11" sheetId="13" r:id="rId16"/>
+    <sheet name="Worksheet 12" sheetId="14" r:id="rId17"/>
+    <sheet name="Worksheet 13" sheetId="15" r:id="rId18"/>
+    <sheet name="Worksheet 14" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>员工号</t>
   </si>
@@ -57,6 +65,18 @@
     <t>可兑换商品</t>
   </si>
   <si>
+    <t>你仨</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
@@ -66,46 +86,40 @@
     <t>经理</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>疯子</t>
   </si>
   <si>
     <t>阿斯蒂芬</t>
   </si>
   <si>
+    <t>大神</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>大师傅</t>
+  </si>
+  <si>
     <t>李四</t>
   </si>
   <si>
-    <t>员工</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>测试部</t>
-  </si>
-  <si>
-    <t>大神</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>大师傅</t>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
     <t>测试3</t>
   </si>
   <si>
     <t>部门</t>
   </si>
   <si>
-    <t>iphone6,德玛西</t>
+    <t>iphone6,德玛西,h,adfsa ,adf,DAS ,sa,qweqwe,yayake,陈龙,妃子</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>同时</t>
+  </si>
+  <si>
+    <t>同事</t>
   </si>
 </sst>
 </file>
@@ -444,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +503,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -501,22 +515,22 @@
         <v>13</v>
       </c>
       <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2">
         <v>100000</v>
       </c>
-      <c r="F2">
-        <v>200000</v>
-      </c>
       <c r="G2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -524,34 +538,34 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>123456</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F3">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="G3">
         <v>100000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5000</v>
+        <v>9</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -559,34 +573,34 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F4">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="G4">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -594,34 +608,34 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>12340564</v>
+        <v>123456</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F5">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="G5">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="H5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>29</v>
+        <v>5000</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -629,34 +643,34 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1321645</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>100000</v>
       </c>
       <c r="G6">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1520</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -664,34 +678,34 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>10000</v>
       </c>
       <c r="F7">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="G7">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -699,38 +713,318 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
+        <v>1321645</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>5000</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>70000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1520</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>221</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+      <c r="F9">
+        <v>50000</v>
+      </c>
+      <c r="G9">
+        <v>50000</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
         <v>123</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>10000</v>
+      </c>
+      <c r="F10">
+        <v>20000</v>
+      </c>
+      <c r="G10">
+        <v>600000</v>
+      </c>
+      <c r="H10">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>100000</v>
+      </c>
+      <c r="F11">
+        <v>200000</v>
+      </c>
+      <c r="G11">
+        <v>200000</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>100000</v>
+      </c>
+      <c r="F12">
+        <v>200000</v>
+      </c>
+      <c r="G12">
+        <v>200000</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
         <v>10000</v>
       </c>
-      <c r="F8">
-        <v>20000</v>
-      </c>
-      <c r="G8">
-        <v>600000</v>
-      </c>
-      <c r="H8">
-        <v>62</v>
-      </c>
-      <c r="I8">
+      <c r="F13">
+        <v>50000</v>
+      </c>
+      <c r="G13">
+        <v>50000</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>223</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="J8">
-        <v>49</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14">
+        <v>50000</v>
+      </c>
+      <c r="G14">
+        <v>50000</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>225</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+      <c r="F15">
+        <v>50000</v>
+      </c>
+      <c r="G15">
+        <v>50000</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <v>10000</v>
+      </c>
+      <c r="G16">
+        <v>10000</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -748,6 +1042,202 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -942,4 +1432,32 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>